--- a/Experiments/230131_module1/plasmids_sp.xlsx
+++ b/Experiments/230131_module1/plasmids_sp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryancardiff/Documents/GitHub/WHISPR/Experiments/230131_module1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22CB814-4191-EB48-BABF-10D85080DEF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F4C5E7-D066-2442-955A-8F521B5D0348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="740" windowWidth="29160" windowHeight="16760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="740" windowWidth="14940" windowHeight="16760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -665,15 +665,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21:D31"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -689,9 +689,8 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -705,7 +704,7 @@
         <v>36.35</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -722,7 +721,7 @@
         <v>59.424999999999898</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -739,7 +738,7 @@
         <v>46.29</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -756,7 +755,7 @@
         <v>53.499000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -773,7 +772,7 @@
         <v>34.375</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -790,7 +789,7 @@
         <v>59.85</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>44</v>
       </c>
@@ -807,7 +806,7 @@
         <v>59.024999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -824,7 +823,7 @@
         <v>57.3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -841,7 +840,7 @@
         <v>59.049999999999898</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -858,7 +857,7 @@
         <v>57.989999999999803</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -875,7 +874,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -892,7 +891,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -909,7 +908,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -926,7 +925,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
